--- a/result/result-summary-journal.xlsx
+++ b/result/result-summary-journal.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\testbed-pat-workspace\TestPATService\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="2535" tabRatio="845" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="2535" tabRatio="845" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary-Thread" sheetId="5" r:id="rId1"/>
@@ -34,7 +39,6 @@
     <definedName name="result_summary_5" localSheetId="11">tmp!$K$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="A23:P39"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="187">
   <si>
     <t>livelock</t>
   </si>
@@ -1035,7 +1039,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1314,11 +1317,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="544162768"/>
-        <c:axId val="544158960"/>
+        <c:axId val="-1906978368"/>
+        <c:axId val="-1906965312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="544162768"/>
+        <c:axId val="-1906978368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1354,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1417,7 +1419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544158960"/>
+        <c:crossAx val="-1906965312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1425,7 +1427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544158960"/>
+        <c:axId val="-1906965312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1478,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1537,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544162768"/>
+        <c:crossAx val="-1906978368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1551,7 +1552,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1662,7 +1662,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1941,11 +1940,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="632852688"/>
-        <c:axId val="632853776"/>
+        <c:axId val="-1899952624"/>
+        <c:axId val="-1899961328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="632852688"/>
+        <c:axId val="-1899952624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +1986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632853776"/>
+        <c:crossAx val="-1899961328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1995,7 +1994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632853776"/>
+        <c:axId val="-1899961328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +2045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632852688"/>
+        <c:crossAx val="-1899952624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2060,7 +2059,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2450,11 +2448,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="632852144"/>
-        <c:axId val="632857040"/>
+        <c:axId val="-1899965680"/>
+        <c:axId val="-1900188336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="632852144"/>
+        <c:axId val="-1899965680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632857040"/>
+        <c:crossAx val="-1900188336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +2502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632857040"/>
+        <c:axId val="-1900188336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632852144"/>
+        <c:crossAx val="-1899965680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2843,11 +2841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="632858672"/>
-        <c:axId val="632851600"/>
+        <c:axId val="-1900191056"/>
+        <c:axId val="-1900175824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632858672"/>
+        <c:axId val="-1900191056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632851600"/>
+        <c:crossAx val="-1900175824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2955,7 +2953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632851600"/>
+        <c:axId val="-1900175824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632858672"/>
+        <c:crossAx val="-1900191056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3154,10 +3152,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="105"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="5"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3233,7 +3231,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3244,23 +3244,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'sync-40'!$E$34:$I$34</c:f>
+              <c:f>'Summary-Multi'!$L$54:$Q$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3268,24 +3271,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sync-40'!$E$35:$I$35</c:f>
+              <c:f>'Summary-Multi'!$L$55:$Q$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1349</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1150</c:v>
+                  <c:v>1654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1693</c:v>
+                  <c:v>1322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2815</c:v>
+                  <c:v>2124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2790</c:v>
+                  <c:v>3418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,8 +3307,11 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3312,23 +3321,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'sync-40'!$E$34:$I$34</c:f>
+              <c:f>'Summary-Multi'!$L$54:$Q$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3336,24 +3348,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sync-40'!$E$36:$I$36</c:f>
+              <c:f>'Summary-Multi'!$L$56:$Q$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>69819</c:v>
+                  <c:v>76897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6723</c:v>
+                  <c:v>75849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6150</c:v>
+                  <c:v>8506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3798</c:v>
+                  <c:v>10352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2939</c:v>
+                  <c:v>5838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3369,11 +3384,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="544183040"/>
-        <c:axId val="544185216"/>
+        <c:axId val="-1900178544"/>
+        <c:axId val="-1900190512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="544183040"/>
+        <c:axId val="-1900178544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,7 +3488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544185216"/>
+        <c:crossAx val="-1900190512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3481,7 +3496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544185216"/>
+        <c:axId val="-1900190512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3589,7 +3604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544183040"/>
+        <c:crossAx val="-1900178544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4328,11 +4343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="544184128"/>
-        <c:axId val="544184672"/>
+        <c:axId val="-1900185072"/>
+        <c:axId val="-1900185616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="544184128"/>
+        <c:axId val="-1900185072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,7 +4390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544184672"/>
+        <c:crossAx val="-1900185616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4383,7 +4398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544184672"/>
+        <c:axId val="-1900185616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4434,7 +4449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544184128"/>
+        <c:crossAx val="-1900185072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4524,7 +4539,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4803,11 +4817,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="544159504"/>
-        <c:axId val="503248400"/>
+        <c:axId val="-1906974560"/>
+        <c:axId val="-1906979456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="544159504"/>
+        <c:axId val="-1906974560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4840,7 +4854,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4906,7 +4919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503248400"/>
+        <c:crossAx val="-1906979456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4914,7 +4927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503248400"/>
+        <c:axId val="-1906979456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4961,7 +4974,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5022,7 +5034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544159504"/>
+        <c:crossAx val="-1906974560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5036,7 +5048,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5146,7 +5157,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5425,11 +5435,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="503250032"/>
-        <c:axId val="503251120"/>
+        <c:axId val="-2120309808"/>
+        <c:axId val="-2120303280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="503250032"/>
+        <c:axId val="-2120309808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5462,7 +5472,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5528,7 +5537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503251120"/>
+        <c:crossAx val="-2120303280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5536,7 +5545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503251120"/>
+        <c:axId val="-2120303280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5583,7 +5592,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5644,7 +5652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503250032"/>
+        <c:crossAx val="-2120309808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5658,7 +5666,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5768,7 +5775,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6059,11 +6065,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="503237472"/>
-        <c:axId val="503241824"/>
+        <c:axId val="-1899958608"/>
+        <c:axId val="-1899955344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="503237472"/>
+        <c:axId val="-1899958608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6096,7 +6102,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6162,7 +6167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503241824"/>
+        <c:crossAx val="-1899955344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6170,7 +6175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503241824"/>
+        <c:axId val="-1899955344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6217,7 +6222,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6278,7 +6282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503237472"/>
+        <c:crossAx val="-1899958608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6292,7 +6296,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6403,7 +6406,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6530,11 +6532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="185003104"/>
-        <c:axId val="185005280"/>
+        <c:axId val="-1899958064"/>
+        <c:axId val="-1899964048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185003104"/>
+        <c:axId val="-1899958064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6571,7 +6573,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6637,7 +6638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185005280"/>
+        <c:crossAx val="-1899964048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6645,7 +6646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185005280"/>
+        <c:axId val="-1899964048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6692,7 +6693,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6753,7 +6753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185003104"/>
+        <c:crossAx val="-1899958064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6767,7 +6767,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6878,7 +6877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7359,11 +7357,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="625374656"/>
-        <c:axId val="625374112"/>
+        <c:axId val="-1899954800"/>
+        <c:axId val="-1899959152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="625374656"/>
+        <c:axId val="-1899954800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7396,7 +7394,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7463,7 +7460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625374112"/>
+        <c:crossAx val="-1899959152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7471,7 +7468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625374112"/>
+        <c:axId val="-1899959152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7518,7 +7515,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7579,7 +7575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625374656"/>
+        <c:crossAx val="-1899954800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7593,7 +7589,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -7996,11 +7991,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="625375200"/>
-        <c:axId val="625371936"/>
+        <c:axId val="-1899956432"/>
+        <c:axId val="-1899955888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="625375200"/>
+        <c:axId val="-1899956432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8042,7 +8037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625371936"/>
+        <c:crossAx val="-1899955888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8050,7 +8045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625371936"/>
+        <c:axId val="-1899955888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8101,7 +8096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625375200"/>
+        <c:crossAx val="-1899956432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8389,11 +8384,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="625370848"/>
-        <c:axId val="625373568"/>
+        <c:axId val="-1899960784"/>
+        <c:axId val="-1899964592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="625370848"/>
+        <c:axId val="-1899960784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8435,7 +8430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625373568"/>
+        <c:crossAx val="-1899964592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8443,7 +8438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625373568"/>
+        <c:axId val="-1899964592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8494,7 +8489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625370848"/>
+        <c:crossAx val="-1899960784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8584,7 +8579,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8863,11 +8857,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="625369216"/>
-        <c:axId val="632854320"/>
+        <c:axId val="-1899952080"/>
+        <c:axId val="-1899963504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="625369216"/>
+        <c:axId val="-1899952080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8909,7 +8903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632854320"/>
+        <c:crossAx val="-1899963504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8917,7 +8911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632854320"/>
+        <c:axId val="-1899963504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8968,7 +8962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625369216"/>
+        <c:crossAx val="-1899952080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8982,7 +8976,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9213,42 +9206,8 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -17181,27 +17140,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result-summary_5" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result-summary_4" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result-summary_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result-summary_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result-summary_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result-summary" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result-summary_5" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result-summary_4" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17772,7 +17731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -18519,10 +18478,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19293,7 +19252,7 @@
         <v>185</v>
       </c>
       <c r="D35">
-        <v>2395</v>
+        <v>1595</v>
       </c>
       <c r="E35">
         <v>1349</v>
@@ -19316,7 +19275,7 @@
         <v>184</v>
       </c>
       <c r="D36">
-        <v>89243</v>
+        <v>79243</v>
       </c>
       <c r="E36">
         <v>69819</v>
@@ -19331,7 +19290,7 @@
         <v>3798</v>
       </c>
       <c r="I36">
-        <v>2939</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -19348,6 +19307,78 @@
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E41" s="3"/>
       <c r="K41" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44" s="5">
+        <v>7</v>
+      </c>
+      <c r="F44" s="5">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4">
+        <v>5</v>
+      </c>
+      <c r="H44" s="4">
+        <v>4</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45">
+        <v>1380</v>
+      </c>
+      <c r="E45">
+        <v>1654</v>
+      </c>
+      <c r="F45">
+        <v>1322</v>
+      </c>
+      <c r="G45">
+        <v>2124</v>
+      </c>
+      <c r="H45">
+        <v>3418</v>
+      </c>
+      <c r="I45">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46">
+        <v>76897</v>
+      </c>
+      <c r="E46">
+        <v>75849</v>
+      </c>
+      <c r="F46">
+        <v>8506</v>
+      </c>
+      <c r="G46">
+        <v>10352</v>
+      </c>
+      <c r="H46">
+        <v>5838</v>
+      </c>
+      <c r="I46">
+        <v>4713</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22022,7 +22053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -22550,14 +22581,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="K54:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="54" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>183</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
+      </c>
+      <c r="M54" s="5">
+        <v>7</v>
+      </c>
+      <c r="N54" s="5">
+        <v>6</v>
+      </c>
+      <c r="O54" s="4">
+        <v>5</v>
+      </c>
+      <c r="P54" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>185</v>
+      </c>
+      <c r="L55">
+        <v>1380</v>
+      </c>
+      <c r="M55">
+        <v>1654</v>
+      </c>
+      <c r="N55">
+        <v>1322</v>
+      </c>
+      <c r="O55">
+        <v>2124</v>
+      </c>
+      <c r="P55">
+        <v>3418</v>
+      </c>
+      <c r="Q55">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="56" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>184</v>
+      </c>
+      <c r="L56">
+        <v>76897</v>
+      </c>
+      <c r="M56">
+        <v>75849</v>
+      </c>
+      <c r="N56">
+        <v>8506</v>
+      </c>
+      <c r="O56">
+        <v>10352</v>
+      </c>
+      <c r="P56">
+        <v>5838</v>
+      </c>
+      <c r="Q56">
+        <v>4713</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
